--- a/biology/Zoologie/Acomys/Acomys.xlsx
+++ b/biology/Zoologie/Acomys/Acomys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Souris épineuses
 Acomys est un genre africain de rongeurs de la sous-famille des Deomyinae. Ces espèces sont appelés souris épineuses ou rats épineux. Certaines souris de ce genre, sont capables de perdre une partie de leur fourrure et de régénérer ensuite totalement les tissus endommagés par les prédateurs.
@@ -514,13 +526,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des sous-genres
-Selon Mammal Species of the World (version 3, 2005)  (8 oct. 2012)[1]
+          <t>Liste des sous-genres</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (8 oct. 2012)
 Acomys (Acomys) I. Geoffroy, 1838
 Acomys (Peracomys) F. Petter &amp; Roche, 1981
-Acomys (Subacomys) Denys, Gautun, Tranier &amp; Volobouev, 1994
-Liste des espèces
-Selon Mammal Species of the World (version 3, 2005)  (8 oct. 2012)[1] :
+Acomys (Subacomys) Denys, Gautun, Tranier &amp; Volobouev, 1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acomys</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acomys</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (8 oct. 2012) :
 sous-genre Acomys (Acomys)
 Acomys airensis
 Acomys cahirinus - Souris égyptienne ou Souris épineuse ou Rat épineux
@@ -547,66 +598,70 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Acomys</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Acomys</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés[2] en français. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés en français. 
 Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide. 
 etc.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Acomys</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Acomys</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En cas de blessure, au lieu de former une cicatrice nue comme chez la Souris grise (Mus musculus), leur peau repousse avec ses follicules pileux, les glandes sudoripares et même du cartilage. Cette découverte faite en 2012, chez les espèces Acomys kempi et Acomys percivali, donne des espoirs aux chercheurs dans le cadre de la médecine régénérative, notamment pour soigner les humains amputés d'un membre[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En cas de blessure, au lieu de former une cicatrice nue comme chez la Souris grise (Mus musculus), leur peau repousse avec ses follicules pileux, les glandes sudoripares et même du cartilage. Cette découverte faite en 2012, chez les espèces Acomys kempi et Acomys percivali, donne des espoirs aux chercheurs dans le cadre de la médecine régénérative, notamment pour soigner les humains amputés d'un membre.
 </t>
         </is>
       </c>
